--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,14 +526,135 @@
           <t>동아줄,</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20221221</t>
-        </is>
+      <c r="D4" t="n">
+        <v>20221221</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>22시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>길을 나서자 갑자기 곧 [해님]이 모습을 드러냈다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>해님</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>아침부터 흐린 게 비가 [올런지] 몰라 우산을 미리 챙겨 나갔다</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>올지</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>올른지</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>횟수(回數)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>횓쑤</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>회쑤, 홷쑤</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>동아줄</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>동아쭐</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>동아줄,</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>인사말</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>인삿말</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>인사말,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20221223</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,14 +647,64 @@
           <t>인사말,</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20221223</t>
-        </is>
+      <c r="D9" t="n">
+        <v>20221223</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>마천루</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>마천누</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>마철루</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>07시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>마천루</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>마천누</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>마철루</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20221224</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>08시 00분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,14 +697,239 @@
           <t>마철루</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20221224</t>
-        </is>
+      <c r="D11" t="n">
+        <v>20221224</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>08시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>어머니께서 제게 시간을 [여쭈어] 보셨어요</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>물어</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>물어보셨어요</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>지금부터 사장님의 말씀이 [계시겠습니다]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>있으시겠습니다</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>있으시겠습니다 | 있겠습니다</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>인사말 (발음)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>인사말</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>인사말,</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>있으십니다</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>있습니다</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>선생님에 너에게 [물을] 일이 있다고 하셔</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>어쭐</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>물으실</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>돌려졌다(형태소)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>돌/리</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>돌리/어/지/었/다</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>기계를 하루 종일 [가동시켜서] 기일을 맞추다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>가동하여</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>가동해서</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>장비를 밤새 [가동시켜] 납품을 맞췄다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>가동해서</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>가동해 | 가동하여</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>내가 합격한 것이 사실인지 [믿겨지지] 않았다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>믿어지지</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>믿기지</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20221228</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,14 +922,298 @@
           <t>믿기지</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20221228</t>
-        </is>
+      <c r="D20" t="n">
+        <v>20221228</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>있으십니다</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>있습니다</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>장비를 밤새 [가동시켜] 납품을 맞췄다</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>가동해서</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>가동해 | 가동하여</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>자신의 돌아가신 아버지</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>아버님</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>다른 사람의 돌아가신 아버지</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>아버님</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>선대인 | 선고장 | 선장</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>큰아버지, 오늘 약주를 많이 드셨는데, 제가 [집]까지 모셔다 드리겠습니다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>덱</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>댁</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>남편의 형의 아내</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>형님</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>김밥(형태소)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>김빱</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>김/밥</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>남편의 누나의 남편</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>아주버님</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>어머니, [할머니가 왔습니다]</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>할머니가 오셨습니다</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>할머니께서 오셨습니다</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>남편의 형</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>아주버님</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(여자의 경우) 여동생의 남편</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>서방</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>제부 | ㅇ서방</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>계세요</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>계세요?</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20221229</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,14 +1206,548 @@
           <t>계세요?</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>20221229</t>
-        </is>
+      <c r="D32" t="n">
+        <v>20221229</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>큰아버지, 오늘 약주를 많이 드셨는데, 제가 [집]까지 모셔다 드리겠습니다</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>덱</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>댁</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>다른 사람의 돌아가신 아버지</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>선친</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>선대인 | 선고장 | 선장</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>있으십니다</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>있습니다</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>07시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>제 [부인]을 소개하겠습니다</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>아내</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>집사람 | 안사람 | 처</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>07시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>여동생의 남편</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>제부</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>매부 | 매형 | 자형</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>07시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>마천루 (발음)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>마천누</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>마철루</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>07시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>다른 사람의 돌아가신 어머니</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>선부인</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>선대부인</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>07시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>국밥(형태소)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>국빱</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>국/밥</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>밀다(사동)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>밀리다</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>밀게 하다</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>07시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>자신의 살아있는 아버지</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>아버님</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>가친 | 엄친</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>07시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>(상점에서) [포장이세요?]</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>포장이요?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>포장해 드릴까요?</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>다른 사람의 살아있는 어머니</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>자당 | 훤당 | 모당 | 모부인</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>07시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>아버지에게 [야단을 맞았다]</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>꾸중을 들었다 | 꾸지람을 들었다 | 걱정을 들었다</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>07시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>자신의 살아있는 아버지</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>권당</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>가친 | 엄친</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>07시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>있으십니다</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>있습니다</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>다른 사람의 돌아가신 어머니</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>선부인</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>선대부인</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>다른 사람의 돌아가신 아버지</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>선대인 | 선고장 | 선장</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>07시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>여동생의 남편</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>제부</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>매부 | 매형 | 자형</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>07시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>다른 사람의 살아있는 어머니</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>자당 | 훤당 | 모당 | 모부인</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>07시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>자신의 돌아가신 아버지</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>선친</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>아버님</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>07시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>계세요</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>계세요?</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>07시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>이쪽에 잠깐 앉아 [계실게요]</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>계세요</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>주시기 바랍니다</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>20230103</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>07시 55분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1740,14 +1740,139 @@
           <t>주시기 바랍니다</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>20230103</t>
-        </is>
+      <c r="D54" t="n">
+        <v>20230103</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>07시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>자신의 살아있는 아버지</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>아버지</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>가친 : 엄친</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>짧네요(발음)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>짤네요</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>짤레요</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>그 사람이 과연 이 일을 [맡을런지]</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>맡을른지</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>맡을는지</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>누가 [왔관대] 이리 소란스러울까?</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>왔건대</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>왔관데</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>10시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>있으십니다</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>있습니다</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>20230108</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10시 28분</t>
         </is>
       </c>
     </row>
